--- a/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按登记注册类型分限额以上批发业企业所有者权益.xlsx
+++ b/data_year/zb/批发和零售业/限额以上批发业企业资产及负债/按登记注册类型分限额以上批发业企业所有者权益.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,1860 +598,1229 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.0052</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>34.438</v>
+        <v>298.6</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0.1359</v>
+        <v>119.2</v>
       </c>
       <c r="F2" t="n">
-        <v>535.2903</v>
+        <v>4567.8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>9.002800000000001</v>
+        <v>15.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3630.0376</v>
+        <v>20109</v>
       </c>
       <c r="J2" t="n">
-        <v>4.0985</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>1881.9602</v>
+        <v>6004.4</v>
       </c>
       <c r="L2" t="n">
-        <v>238.9262</v>
+        <v>1269.7</v>
       </c>
       <c r="M2" t="n">
-        <v>19.1923</v>
+        <v>27.3</v>
       </c>
       <c r="N2" t="n">
-        <v>105.55</v>
+        <v>2647.6</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5034999999999999</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>72.61369999999999</v>
+        <v>2316</v>
       </c>
       <c r="Q2" t="n">
-        <v>3783.3223</v>
+        <v>23500.5</v>
       </c>
       <c r="R2" t="n">
-        <v>774.2165</v>
+        <v>5837.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.6837</v>
+        <v>8.5</v>
       </c>
       <c r="T2" t="n">
-        <v>6.6069</v>
+        <v>165.9</v>
       </c>
       <c r="U2" t="n">
-        <v>47.7347</v>
+        <v>743.8</v>
       </c>
       <c r="V2" t="n">
-        <v>21.3406</v>
+        <v>25.2</v>
       </c>
       <c r="W2" t="n">
-        <v>18.1035</v>
+        <v>544.1</v>
       </c>
       <c r="X2" t="n">
-        <v>1.6015</v>
+        <v>38.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>147.7932</v>
+        <v>4304.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>133.7505</v>
+        <v>3802.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.2911</v>
+        <v>230</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.1502</v>
+        <v>234.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>33.1493</v>
+        <v>53.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>41.9192</v>
+        <v>51</v>
       </c>
       <c r="AE2" t="n">
-        <v>658.7859999999999</v>
+        <v>3539.4</v>
       </c>
       <c r="AF2" t="n">
-        <v>92.0774</v>
+        <v>199.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.8552</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.75987</v>
+        <v>33.494</v>
       </c>
       <c r="C3" t="n">
-        <v>23.67617</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>366.0347</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5541</v>
+      </c>
       <c r="E3" t="n">
-        <v>1.11684</v>
+        <v>340.1234</v>
       </c>
       <c r="F3" t="n">
-        <v>733.56656</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>6021.4005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2198</v>
+      </c>
       <c r="H3" t="n">
-        <v>7.59671</v>
+        <v>9.5153</v>
       </c>
       <c r="I3" t="n">
-        <v>4202.16864</v>
+        <v>24088.695</v>
       </c>
       <c r="J3" t="n">
-        <v>5.95879</v>
+        <v>9.8714</v>
       </c>
       <c r="K3" t="n">
-        <v>1922.42161</v>
+        <v>6507.4689</v>
       </c>
       <c r="L3" t="n">
-        <v>277.17192</v>
+        <v>1503.8853</v>
       </c>
       <c r="M3" t="n">
-        <v>17.92222</v>
+        <v>16.459</v>
       </c>
       <c r="N3" t="n">
-        <v>115.49964</v>
+        <v>3387.0889</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0713</v>
+        <v>52.2508</v>
       </c>
       <c r="P3" t="n">
-        <v>93.51204</v>
+        <v>2934.7553</v>
       </c>
       <c r="Q3" t="n">
-        <v>4375.35647</v>
+        <v>28654.7027</v>
       </c>
       <c r="R3" t="n">
-        <v>1010.73848</v>
+        <v>7525.2859</v>
       </c>
       <c r="S3" t="n">
-        <v>5.83969</v>
+        <v>10.2709</v>
       </c>
       <c r="T3" t="n">
-        <v>10.80766</v>
+        <v>166.0706</v>
       </c>
       <c r="U3" t="n">
-        <v>57.68819</v>
+        <v>1178.9188</v>
       </c>
       <c r="V3" t="n">
-        <v>24.0593</v>
+        <v>78.2029</v>
       </c>
       <c r="W3" t="n">
-        <v>16.98154</v>
+        <v>924.1545</v>
       </c>
       <c r="X3" t="n">
-        <v>2.92093</v>
+        <v>36.7735</v>
       </c>
       <c r="Y3" t="n">
-        <v>226.80034</v>
+        <v>5187.3865</v>
       </c>
       <c r="Z3" t="n">
-        <v>201.41154</v>
+        <v>4677.5538</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.33173</v>
+        <v>226.9214</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.13614</v>
+        <v>246.1378</v>
       </c>
       <c r="AC3" t="n">
-        <v>32.38344</v>
+        <v>39.6549</v>
       </c>
       <c r="AD3" t="n">
-        <v>28.87411</v>
+        <v>48.5045</v>
       </c>
       <c r="AE3" t="n">
-        <v>889.1372699999999</v>
+        <v>4265.2114</v>
       </c>
       <c r="AF3" t="n">
-        <v>90.69655</v>
+        <v>175.0596</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.90572</v>
+        <v>3.8092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>34.30497</v>
+      </c>
+      <c r="C4" t="n">
+        <v>456.86371</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.27743</v>
+      </c>
+      <c r="E4" t="n">
+        <v>384.4034</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7467.31798</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.20053</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12.20114</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28599.84924</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.89277</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7552.0517</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1683.80981</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21.05364</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3634.19381</v>
+      </c>
+      <c r="O4" t="n">
+        <v>27.48585</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3113.26185</v>
+      </c>
       <c r="Q4" t="n">
-        <v>7716.6</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+        <v>33688.93902</v>
+      </c>
+      <c r="R4" t="n">
+        <v>9151.12779</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10.70797</v>
+      </c>
+      <c r="T4" t="n">
+        <v>226.26511</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1454.89597</v>
+      </c>
+      <c r="V4" t="n">
+        <v>20.19628</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1196.52608</v>
+      </c>
+      <c r="X4" t="n">
+        <v>40.77032</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6419.95499</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>5830.51488</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>299.17377</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>249.49602</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>46.90488</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>55.05213</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>4806.85884</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>183.49551</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2.75733</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.52202</v>
+        <v>30.37974</v>
       </c>
       <c r="C5" t="n">
-        <v>76.62053</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>527.85181</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.51037</v>
+      </c>
       <c r="E5" t="n">
-        <v>12.45885</v>
+        <v>153.90713</v>
       </c>
       <c r="F5" t="n">
-        <v>1522.90831</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>10737.78048</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.44113</v>
+      </c>
       <c r="H5" t="n">
-        <v>6.50234</v>
+        <v>0.51901</v>
       </c>
       <c r="I5" t="n">
-        <v>7235.82966</v>
+        <v>34489.92594</v>
       </c>
       <c r="J5" t="n">
-        <v>5.08678</v>
+        <v>5.28306</v>
       </c>
       <c r="K5" t="n">
-        <v>2695.92622</v>
+        <v>5915.99884</v>
       </c>
       <c r="L5" t="n">
-        <v>496.0892</v>
+        <v>3074.35383</v>
       </c>
       <c r="M5" t="n">
-        <v>32.10013</v>
+        <v>4.53186</v>
       </c>
       <c r="N5" t="n">
-        <v>599.59682</v>
+        <v>4464.79565</v>
       </c>
       <c r="O5" t="n">
-        <v>3.43831</v>
+        <v>39.45694</v>
       </c>
       <c r="P5" t="n">
-        <v>519.01596</v>
+        <v>3826.59679</v>
       </c>
       <c r="Q5" t="n">
-        <v>7906.9</v>
+        <v>40980.0719</v>
       </c>
       <c r="R5" t="n">
-        <v>2018.99751</v>
+        <v>13812.13431</v>
       </c>
       <c r="S5" t="n">
-        <v>4.61863</v>
+        <v>17.10515</v>
       </c>
       <c r="T5" t="n">
-        <v>12.29692</v>
+        <v>252.60186</v>
       </c>
       <c r="U5" t="n">
-        <v>71.47452</v>
+        <v>2025.3503</v>
       </c>
       <c r="V5" t="n">
-        <v>12.16548</v>
+        <v>32.66562</v>
       </c>
       <c r="W5" t="n">
-        <v>42.39349</v>
+        <v>1722.53654</v>
       </c>
       <c r="X5" t="n">
-        <v>4.4594</v>
+        <v>8.503869999999999</v>
       </c>
       <c r="Y5" t="n">
-        <v>1004.48875</v>
+        <v>8687.23357</v>
       </c>
       <c r="Z5" t="n">
-        <v>944.98865</v>
+        <v>8258.19982</v>
       </c>
       <c r="AA5" t="n">
-        <v>16.09083</v>
+        <v>75.11009</v>
       </c>
       <c r="AB5" t="n">
-        <v>38.94987</v>
+        <v>345.41979</v>
       </c>
       <c r="AC5" t="n">
-        <v>44.31696</v>
+        <v>11.36847</v>
       </c>
       <c r="AD5" t="n">
-        <v>45.24713</v>
+        <v>19.61245</v>
       </c>
       <c r="AE5" t="n">
-        <v>1304.48742</v>
+        <v>5765.41012</v>
       </c>
       <c r="AF5" t="n">
-        <v>109.90682</v>
+        <v>124.26105</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.62771</v>
+        <v>1.03454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.0877</v>
+        <v>31.24024</v>
       </c>
       <c r="C6" t="n">
-        <v>84.5668</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>682.72012</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47.36028</v>
+      </c>
       <c r="E6" t="n">
-        <v>73.2433</v>
+        <v>122.96243</v>
       </c>
       <c r="F6" t="n">
-        <v>2063.5353</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>12673.65333</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.81488</v>
+      </c>
       <c r="H6" t="n">
-        <v>8.101900000000001</v>
+        <v>2.87577</v>
       </c>
       <c r="I6" t="n">
-        <v>8461.820100000001</v>
+        <v>38460.36003</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9848</v>
+        <v>1.45846</v>
       </c>
       <c r="K6" t="n">
-        <v>3105.1131</v>
+        <v>6253.19397</v>
       </c>
       <c r="L6" t="n">
-        <v>452.0411</v>
+        <v>3400.56008</v>
       </c>
       <c r="M6" t="n">
-        <v>35.5489</v>
+        <v>3.43532</v>
       </c>
       <c r="N6" t="n">
-        <v>716.1904</v>
+        <v>5192.6934</v>
       </c>
       <c r="O6" t="n">
-        <v>9.213699999999999</v>
+        <v>45.33944</v>
       </c>
       <c r="P6" t="n">
-        <v>618.3222</v>
+        <v>4386.03332</v>
       </c>
       <c r="Q6" t="n">
-        <v>9268.9</v>
+        <v>46217.4894</v>
       </c>
       <c r="R6" t="n">
-        <v>2515.5764</v>
+        <v>16074.21341</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2802</v>
+        <v>22.50619</v>
       </c>
       <c r="T6" t="n">
-        <v>16.9376</v>
+        <v>402.74255</v>
       </c>
       <c r="U6" t="n">
-        <v>90.8809</v>
+        <v>2564.43595</v>
       </c>
       <c r="V6" t="n">
-        <v>14.6067</v>
+        <v>21.30281</v>
       </c>
       <c r="W6" t="n">
-        <v>55.0564</v>
+        <v>2115.06952</v>
       </c>
       <c r="X6" t="n">
-        <v>8.791600000000001</v>
+        <v>5.81103</v>
       </c>
       <c r="Y6" t="n">
-        <v>1250.2907</v>
+        <v>9502.355079999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>1165.0333</v>
+        <v>9040.558919999999</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1098</v>
+        <v>60.71552</v>
       </c>
       <c r="AB6" t="n">
-        <v>55.3559</v>
+        <v>395.26961</v>
       </c>
       <c r="AC6" t="n">
-        <v>52.1049</v>
+        <v>8.884069999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>33.0221</v>
+        <v>14.0444</v>
       </c>
       <c r="AE6" t="n">
-        <v>1320.1084</v>
+        <v>6356.71431</v>
       </c>
       <c r="AF6" t="n">
-        <v>112.3613</v>
+        <v>127.99236</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.4693</v>
+        <v>1.11452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.00652</v>
+        <v>13.8924</v>
       </c>
       <c r="C7" t="n">
-        <v>137.47318</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>631.351</v>
+      </c>
+      <c r="D7" t="n">
+        <v>69.1994</v>
+      </c>
       <c r="E7" t="n">
-        <v>49.16311</v>
+        <v>156.1853</v>
       </c>
       <c r="F7" t="n">
-        <v>2090.53411</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>14413.5454</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.8597</v>
+      </c>
       <c r="H7" t="n">
-        <v>10.81384</v>
+        <v>4.6607</v>
       </c>
       <c r="I7" t="n">
-        <v>10167.02073</v>
+        <v>40866.8896</v>
       </c>
       <c r="J7" t="n">
-        <v>7.5838</v>
+        <v>2.5445</v>
       </c>
       <c r="K7" t="n">
-        <v>3740.45738</v>
+        <v>6076.0296</v>
       </c>
       <c r="L7" t="n">
-        <v>991.21663</v>
+        <v>3872.1395</v>
       </c>
       <c r="M7" t="n">
-        <v>36.90066</v>
+        <v>3.2788</v>
       </c>
       <c r="N7" t="n">
-        <v>938.25428</v>
+        <v>5378.3818</v>
       </c>
       <c r="O7" t="n">
-        <v>72.26017</v>
+        <v>55.0585</v>
       </c>
       <c r="P7" t="n">
-        <v>727.51441</v>
+        <v>4608.881</v>
       </c>
       <c r="Q7" t="n">
-        <v>11239.4</v>
+        <v>49191.3331</v>
       </c>
       <c r="R7" t="n">
-        <v>3081.75074</v>
+        <v>18285.6849</v>
       </c>
       <c r="S7" t="n">
-        <v>4.1058</v>
+        <v>23.52</v>
       </c>
       <c r="T7" t="n">
-        <v>32.57042</v>
+        <v>506.2749</v>
       </c>
       <c r="U7" t="n">
-        <v>134.08544</v>
+        <v>2946.0619</v>
       </c>
       <c r="V7" t="n">
-        <v>17.81966</v>
+        <v>38.6008</v>
       </c>
       <c r="W7" t="n">
-        <v>79.58956000000001</v>
+        <v>2371.8068</v>
       </c>
       <c r="X7" t="n">
-        <v>10.37639</v>
+        <v>5.6071</v>
       </c>
       <c r="Y7" t="n">
-        <v>1608.88755</v>
+        <v>9217.8205</v>
       </c>
       <c r="Z7" t="n">
-        <v>1440.33526</v>
+        <v>8517.532999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.06513</v>
+        <v>79.8539</v>
       </c>
       <c r="AB7" t="n">
-        <v>60.11077</v>
+        <v>614.8273</v>
       </c>
       <c r="AC7" t="n">
-        <v>56.6622</v>
+        <v>11.2939</v>
       </c>
       <c r="AD7" t="n">
-        <v>47.90522</v>
+        <v>17.0939</v>
       </c>
       <c r="AE7" t="n">
-        <v>1454.82499</v>
+        <v>6976.9208</v>
       </c>
       <c r="AF7" t="n">
-        <v>127.36954</v>
+        <v>125.8616</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.3639</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.9791</v>
+        <v>2.4084</v>
       </c>
       <c r="C8" t="n">
-        <v>175.0284</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>580.9976</v>
+      </c>
+      <c r="D8" t="n">
+        <v>96.1722</v>
+      </c>
       <c r="E8" t="n">
-        <v>86.82429999999999</v>
+        <v>113.4446</v>
       </c>
       <c r="F8" t="n">
-        <v>3634.9604</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>17483.4558</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17.1326</v>
+      </c>
       <c r="H8" t="n">
-        <v>10.2322</v>
+        <v>1.9394</v>
       </c>
       <c r="I8" t="n">
-        <v>15733.9532</v>
+        <v>47021.7084</v>
       </c>
       <c r="J8" t="n">
-        <v>10.8728</v>
+        <v>1.5913</v>
       </c>
       <c r="K8" t="n">
-        <v>4826.8489</v>
+        <v>5705.5221</v>
       </c>
       <c r="L8" t="n">
-        <v>1083.795</v>
+        <v>4663.8175</v>
       </c>
       <c r="M8" t="n">
-        <v>25.841</v>
+        <v>1.7703</v>
       </c>
       <c r="N8" t="n">
-        <v>1807.5215</v>
+        <v>5810.7538</v>
       </c>
       <c r="O8" t="n">
-        <v>30.1256</v>
+        <v>48.11</v>
       </c>
       <c r="P8" t="n">
-        <v>1590.3885</v>
+        <v>5083.0659</v>
       </c>
       <c r="Q8" t="n">
-        <v>17949.8014</v>
+        <v>56254.0426</v>
       </c>
       <c r="R8" t="n">
-        <v>4718.7554</v>
+        <v>22147.2731</v>
       </c>
       <c r="S8" t="n">
-        <v>5.7628</v>
+        <v>30.5222</v>
       </c>
       <c r="T8" t="n">
-        <v>105.2902</v>
+        <v>595.9494999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>408.3266</v>
+        <v>3421.5802</v>
       </c>
       <c r="V8" t="n">
-        <v>8.437099999999999</v>
+        <v>45.6911</v>
       </c>
       <c r="W8" t="n">
-        <v>288.8365</v>
+        <v>2732.2853</v>
       </c>
       <c r="X8" t="n">
-        <v>54.8635</v>
+        <v>5.7281</v>
       </c>
       <c r="Y8" t="n">
-        <v>3239.8131</v>
+        <v>10718.2556</v>
       </c>
       <c r="Z8" t="n">
-        <v>2818.4759</v>
+        <v>9886.989299999999</v>
       </c>
       <c r="AA8" t="n">
-        <v>207.854</v>
+        <v>60.2142</v>
       </c>
       <c r="AB8" t="n">
-        <v>158.6197</v>
+        <v>765.3246</v>
       </c>
       <c r="AC8" t="n">
-        <v>50.7577</v>
+        <v>5.9556</v>
       </c>
       <c r="AD8" t="n">
-        <v>69.59910000000001</v>
+        <v>15.5626</v>
       </c>
       <c r="AE8" t="n">
-        <v>2560.1548</v>
+        <v>8186.3981</v>
       </c>
       <c r="AF8" t="n">
-        <v>181.1999</v>
+        <v>129.2971</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.8117</v>
+        <v>0.6546999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.1264</v>
+        <v>3.929</v>
       </c>
       <c r="C9" t="n">
-        <v>202.36001</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>720.5650000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>144.444</v>
+      </c>
       <c r="E9" t="n">
-        <v>111.4605</v>
+        <v>77.17700000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>3738.58244</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>18062.21</v>
+      </c>
+      <c r="G9" t="n">
+        <v>80.938</v>
+      </c>
       <c r="H9" t="n">
-        <v>11.6294</v>
+        <v>0.35</v>
       </c>
       <c r="I9" t="n">
-        <v>16871.89844</v>
+        <v>50256.941</v>
       </c>
       <c r="J9" t="n">
-        <v>6.19457</v>
+        <v>1.673</v>
       </c>
       <c r="K9" t="n">
-        <v>5117.16671</v>
+        <v>5909.341</v>
       </c>
       <c r="L9" t="n">
-        <v>1077.38352</v>
+        <v>5159.394</v>
       </c>
       <c r="M9" t="n">
-        <v>20.11371</v>
+        <v>1.957</v>
       </c>
       <c r="N9" t="n">
-        <v>2044.59937</v>
+        <v>6423.377</v>
       </c>
       <c r="O9" t="n">
-        <v>27.85285</v>
+        <v>89.383</v>
       </c>
       <c r="P9" t="n">
-        <v>1808.26011</v>
+        <v>5465.057</v>
       </c>
       <c r="Q9" t="n">
-        <v>19445.78289</v>
+        <v>60449.7991</v>
       </c>
       <c r="R9" t="n">
-        <v>4815.96596</v>
+        <v>23221.605</v>
       </c>
       <c r="S9" t="n">
-        <v>8.37846</v>
+        <v>14.121</v>
       </c>
       <c r="T9" t="n">
-        <v>104.3308</v>
+        <v>624.1319999999999</v>
       </c>
       <c r="U9" t="n">
-        <v>529.28508</v>
+        <v>3769.481</v>
       </c>
       <c r="V9" t="n">
-        <v>59.95095</v>
+        <v>121.887</v>
       </c>
       <c r="W9" t="n">
-        <v>356.62487</v>
+        <v>2928.403</v>
       </c>
       <c r="X9" t="n">
-        <v>32.00221</v>
+        <v>3.84</v>
       </c>
       <c r="Y9" t="n">
-        <v>3169.55647</v>
+        <v>12025.78</v>
       </c>
       <c r="Z9" t="n">
-        <v>2793.75003</v>
+        <v>11356.943</v>
       </c>
       <c r="AA9" t="n">
-        <v>174.90064</v>
+        <v>46.466</v>
       </c>
       <c r="AB9" t="n">
-        <v>168.90359</v>
+        <v>618.5309999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>39.67677</v>
+        <v>5.358</v>
       </c>
       <c r="AD9" t="n">
-        <v>52.67642</v>
+        <v>13.318</v>
       </c>
       <c r="AE9" t="n">
-        <v>3246.33406</v>
+        <v>8902.948</v>
       </c>
       <c r="AF9" t="n">
-        <v>319.06155</v>
+        <v>101.416</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.73909</v>
+        <v>1.378</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>8.5</v>
       </c>
       <c r="C10" t="n">
-        <v>298.6</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>855.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>206.6</v>
+      </c>
       <c r="E10" t="n">
-        <v>119.2</v>
+        <v>54.8</v>
       </c>
       <c r="F10" t="n">
-        <v>4567.8</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>15.9</v>
-      </c>
+        <v>19354.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>20109</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8.199999999999999</v>
-      </c>
+        <v>55173.1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>6004.4</v>
+        <v>5226.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1269.7</v>
+        <v>6623.7</v>
       </c>
       <c r="M10" t="n">
-        <v>27.3</v>
+        <v>1.9</v>
       </c>
       <c r="N10" t="n">
-        <v>2647.6</v>
+        <v>7534.6</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>130.9</v>
       </c>
       <c r="P10" t="n">
-        <v>2316</v>
+        <v>6333.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>23500.5</v>
+        <v>67474.7</v>
       </c>
       <c r="R10" t="n">
-        <v>5837.4</v>
+        <v>25977.9</v>
       </c>
       <c r="S10" t="n">
-        <v>8.5</v>
+        <v>18.2</v>
       </c>
       <c r="T10" t="n">
-        <v>165.9</v>
+        <v>876.8</v>
       </c>
       <c r="U10" t="n">
-        <v>743.8</v>
+        <v>4767</v>
       </c>
       <c r="V10" t="n">
-        <v>25.2</v>
+        <v>224.9</v>
       </c>
       <c r="W10" t="n">
-        <v>544.1</v>
+        <v>3608.7</v>
       </c>
       <c r="X10" t="n">
-        <v>38.4</v>
+        <v>4</v>
       </c>
       <c r="Y10" t="n">
-        <v>4304.5</v>
+        <v>13991.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>3802.1</v>
+        <v>13212.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>230</v>
+        <v>32.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>234.1</v>
+        <v>742.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>53.5</v>
+        <v>5.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>51</v>
+        <v>15.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>3539.4</v>
+        <v>9820.1</v>
       </c>
       <c r="AF10" t="n">
-        <v>199.4</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.494</v>
+        <v>9.9556</v>
       </c>
       <c r="C11" t="n">
-        <v>366.0347</v>
+        <v>1238.863</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5541</v>
+        <v>142.6586</v>
       </c>
       <c r="E11" t="n">
-        <v>340.1234</v>
+        <v>45.1483</v>
       </c>
       <c r="F11" t="n">
-        <v>6021.4005</v>
+        <v>23739.8369</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2198</v>
+        <v>42.0458</v>
       </c>
       <c r="H11" t="n">
-        <v>9.5153</v>
+        <v>1.3923</v>
       </c>
       <c r="I11" t="n">
-        <v>24088.695</v>
+        <v>65286.0106</v>
       </c>
       <c r="J11" t="n">
-        <v>9.8714</v>
+        <v>10.1697</v>
       </c>
       <c r="K11" t="n">
-        <v>6507.4689</v>
+        <v>5213.3823</v>
       </c>
       <c r="L11" t="n">
-        <v>1503.8853</v>
+        <v>7253.5703</v>
       </c>
       <c r="M11" t="n">
-        <v>16.459</v>
+        <v>2.1121</v>
       </c>
       <c r="N11" t="n">
-        <v>3387.0889</v>
+        <v>9040.055200000001</v>
       </c>
       <c r="O11" t="n">
-        <v>52.2508</v>
+        <v>333.3393</v>
       </c>
       <c r="P11" t="n">
-        <v>2934.7553</v>
+        <v>7315.2392</v>
       </c>
       <c r="Q11" t="n">
-        <v>28654.7027</v>
+        <v>79908.9773</v>
       </c>
       <c r="R11" t="n">
-        <v>7525.2859</v>
+        <v>30993.4069</v>
       </c>
       <c r="S11" t="n">
-        <v>10.2709</v>
+        <v>25.3676</v>
       </c>
       <c r="T11" t="n">
-        <v>166.0706</v>
+        <v>1080.0363</v>
       </c>
       <c r="U11" t="n">
-        <v>1178.9188</v>
+        <v>5582.9114</v>
       </c>
       <c r="V11" t="n">
-        <v>78.2029</v>
+        <v>351.6904</v>
       </c>
       <c r="W11" t="n">
-        <v>924.1545</v>
+        <v>4083.7723</v>
       </c>
       <c r="X11" t="n">
-        <v>36.7735</v>
+        <v>6.3118</v>
       </c>
       <c r="Y11" t="n">
-        <v>5187.3865</v>
+        <v>17548.6954</v>
       </c>
       <c r="Z11" t="n">
-        <v>4677.5538</v>
+        <v>16380.7336</v>
       </c>
       <c r="AA11" t="n">
-        <v>226.9214</v>
+        <v>33.9216</v>
       </c>
       <c r="AB11" t="n">
-        <v>246.1378</v>
+        <v>1127.7285</v>
       </c>
       <c r="AC11" t="n">
-        <v>39.6549</v>
+        <v>14.2972</v>
       </c>
       <c r="AD11" t="n">
-        <v>48.5045</v>
+        <v>20.4847</v>
       </c>
       <c r="AE11" t="n">
-        <v>4265.2114</v>
+        <v>11346.8954</v>
       </c>
       <c r="AF11" t="n">
-        <v>175.0596</v>
+        <v>103.7001</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.8092</v>
+        <v>0.6231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.30497</v>
+        <v>5.9975</v>
       </c>
       <c r="C12" t="n">
-        <v>456.86371</v>
+        <v>1781.123</v>
       </c>
       <c r="D12" t="n">
-        <v>2.27743</v>
+        <v>71.8741</v>
       </c>
       <c r="E12" t="n">
-        <v>384.4034</v>
+        <v>49.6478</v>
       </c>
       <c r="F12" t="n">
-        <v>7467.31798</v>
+        <v>25297.9046</v>
       </c>
       <c r="G12" t="n">
-        <v>1.20053</v>
+        <v>85.584</v>
       </c>
       <c r="H12" t="n">
-        <v>12.20114</v>
+        <v>3.979</v>
       </c>
       <c r="I12" t="n">
-        <v>28599.84924</v>
+        <v>77079.89629999999</v>
       </c>
       <c r="J12" t="n">
-        <v>10.89277</v>
+        <v>18.7136</v>
       </c>
       <c r="K12" t="n">
-        <v>7552.0517</v>
+        <v>7804.4686</v>
       </c>
       <c r="L12" t="n">
-        <v>1683.80981</v>
+        <v>10155.5831</v>
       </c>
       <c r="M12" t="n">
-        <v>21.05364</v>
+        <v>4.6016</v>
       </c>
       <c r="N12" t="n">
-        <v>3634.19381</v>
+        <v>10592.6371</v>
       </c>
       <c r="O12" t="n">
-        <v>27.48585</v>
+        <v>381.4965</v>
       </c>
       <c r="P12" t="n">
-        <v>3113.26185</v>
+        <v>8352.1464</v>
       </c>
       <c r="Q12" t="n">
-        <v>33688.93902</v>
+        <v>94534.1504</v>
       </c>
       <c r="R12" t="n">
-        <v>9151.12779</v>
+        <v>35453.488</v>
       </c>
       <c r="S12" t="n">
-        <v>10.70797</v>
+        <v>21.9792</v>
       </c>
       <c r="T12" t="n">
-        <v>226.26511</v>
+        <v>1070.2054</v>
       </c>
       <c r="U12" t="n">
-        <v>1454.89597</v>
+        <v>6861.6177</v>
       </c>
       <c r="V12" t="n">
-        <v>20.19628</v>
+        <v>668.155</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.52608</v>
+        <v>5015.6942</v>
       </c>
       <c r="X12" t="n">
-        <v>40.77032</v>
+        <v>24.1454</v>
       </c>
       <c r="Y12" t="n">
-        <v>6419.95499</v>
+        <v>22206.8038</v>
       </c>
       <c r="Z12" t="n">
-        <v>5830.51488</v>
+        <v>20044.7965</v>
       </c>
       <c r="AA12" t="n">
-        <v>299.17377</v>
+        <v>152.3181</v>
       </c>
       <c r="AB12" t="n">
-        <v>249.49602</v>
+        <v>1985.5442</v>
       </c>
       <c r="AC12" t="n">
-        <v>46.90488</v>
+        <v>27.3778</v>
       </c>
       <c r="AD12" t="n">
-        <v>55.05213</v>
+        <v>4.9473</v>
       </c>
       <c r="AE12" t="n">
-        <v>4806.85884</v>
+        <v>11373.2539</v>
       </c>
       <c r="AF12" t="n">
-        <v>183.49551</v>
+        <v>159.909</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.75733</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.37974</v>
+        <v>8.3782</v>
       </c>
       <c r="C13" t="n">
-        <v>527.85181</v>
+        <v>1193.3011</v>
       </c>
       <c r="D13" t="n">
-        <v>40.51037</v>
+        <v>77.30459999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>153.90713</v>
+        <v>53.6343</v>
       </c>
       <c r="F13" t="n">
-        <v>10737.78048</v>
+        <v>30520.368</v>
       </c>
       <c r="G13" t="n">
-        <v>0.44113</v>
+        <v>90.1694</v>
       </c>
       <c r="H13" t="n">
-        <v>0.51901</v>
+        <v>1.5278</v>
       </c>
       <c r="I13" t="n">
-        <v>34489.92594</v>
+        <v>89769.038</v>
       </c>
       <c r="J13" t="n">
-        <v>5.28306</v>
+        <v>13.0602</v>
       </c>
       <c r="K13" t="n">
-        <v>5915.99884</v>
+        <v>8365.429599999999</v>
       </c>
       <c r="L13" t="n">
-        <v>3074.35383</v>
+        <v>10557.4892</v>
       </c>
       <c r="M13" t="n">
-        <v>4.53186</v>
+        <v>76.1589</v>
       </c>
       <c r="N13" t="n">
-        <v>4464.79565</v>
+        <v>12213.6495</v>
       </c>
       <c r="O13" t="n">
-        <v>39.45694</v>
+        <v>1730.3813</v>
       </c>
       <c r="P13" t="n">
-        <v>3826.59679</v>
+        <v>9204.284299999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>40980.0719</v>
+        <v>109975.28</v>
       </c>
       <c r="R13" t="n">
-        <v>13812.13431</v>
+        <v>41077.8573</v>
       </c>
       <c r="S13" t="n">
-        <v>17.10515</v>
+        <v>51.5287</v>
       </c>
       <c r="T13" t="n">
-        <v>252.60186</v>
+        <v>1364.5422</v>
       </c>
       <c r="U13" t="n">
-        <v>2025.3503</v>
+        <v>7992.5928</v>
       </c>
       <c r="V13" t="n">
-        <v>32.66562</v>
+        <v>881.4325</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.53654</v>
+        <v>5604.92</v>
       </c>
       <c r="X13" t="n">
-        <v>8.503869999999999</v>
+        <v>19.7911</v>
       </c>
       <c r="Y13" t="n">
-        <v>8687.23357</v>
+        <v>27683.244</v>
       </c>
       <c r="Z13" t="n">
-        <v>8258.19982</v>
+        <v>25064.6311</v>
       </c>
       <c r="AA13" t="n">
-        <v>75.11009</v>
+        <v>156.6136</v>
       </c>
       <c r="AB13" t="n">
-        <v>345.41979</v>
+        <v>2442.2083</v>
       </c>
       <c r="AC13" t="n">
-        <v>11.36847</v>
+        <v>91.5445</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.61245</v>
+        <v>54.8667</v>
       </c>
       <c r="AE13" t="n">
-        <v>5765.41012</v>
+        <v>12367.2746</v>
       </c>
       <c r="AF13" t="n">
-        <v>124.26105</v>
+        <v>75.187</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.03454</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>31.24024</v>
-      </c>
-      <c r="C14" t="n">
-        <v>682.72012</v>
-      </c>
-      <c r="D14" t="n">
-        <v>47.36028</v>
-      </c>
-      <c r="E14" t="n">
-        <v>122.96243</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12673.65333</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.81488</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.87577</v>
-      </c>
-      <c r="I14" t="n">
-        <v>38460.36003</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.45846</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6253.19397</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3400.56008</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.43532</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5192.6934</v>
-      </c>
-      <c r="O14" t="n">
-        <v>45.33944</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4386.03332</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>46217.4894</v>
-      </c>
-      <c r="R14" t="n">
-        <v>16074.21341</v>
-      </c>
-      <c r="S14" t="n">
-        <v>22.50619</v>
-      </c>
-      <c r="T14" t="n">
-        <v>402.74255</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2564.43595</v>
-      </c>
-      <c r="V14" t="n">
-        <v>21.30281</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2115.06952</v>
-      </c>
-      <c r="X14" t="n">
-        <v>5.81103</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9502.355079999999</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>9040.558919999999</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>60.71552</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>395.26961</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.884069999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14.0444</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>6356.71431</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>127.99236</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1.11452</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>13.8924</v>
-      </c>
-      <c r="C15" t="n">
-        <v>631.351</v>
-      </c>
-      <c r="D15" t="n">
-        <v>69.1994</v>
-      </c>
-      <c r="E15" t="n">
-        <v>156.1853</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14413.5454</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.8597</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.6607</v>
-      </c>
-      <c r="I15" t="n">
-        <v>40866.8896</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.5445</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6076.0296</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3872.1395</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.2788</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5378.3818</v>
-      </c>
-      <c r="O15" t="n">
-        <v>55.0585</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4608.881</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>49191.3331</v>
-      </c>
-      <c r="R15" t="n">
-        <v>18285.6849</v>
-      </c>
-      <c r="S15" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="T15" t="n">
-        <v>506.2749</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2946.0619</v>
-      </c>
-      <c r="V15" t="n">
-        <v>38.6008</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2371.8068</v>
-      </c>
-      <c r="X15" t="n">
-        <v>5.6071</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9217.8205</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>8517.532999999999</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>79.8539</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>614.8273</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11.2939</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>17.0939</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>6976.9208</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>125.8616</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.4084</v>
-      </c>
-      <c r="C16" t="n">
-        <v>580.9976</v>
-      </c>
-      <c r="D16" t="n">
-        <v>96.1722</v>
-      </c>
-      <c r="E16" t="n">
-        <v>113.4446</v>
-      </c>
-      <c r="F16" t="n">
-        <v>17483.4558</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17.1326</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.9394</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47021.7084</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.5913</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5705.5221</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4663.8175</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.7703</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5810.7538</v>
-      </c>
-      <c r="O16" t="n">
-        <v>48.11</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5083.0659</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>56254.0426</v>
-      </c>
-      <c r="R16" t="n">
-        <v>22147.2731</v>
-      </c>
-      <c r="S16" t="n">
-        <v>30.5222</v>
-      </c>
-      <c r="T16" t="n">
-        <v>595.9494999999999</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3421.5802</v>
-      </c>
-      <c r="V16" t="n">
-        <v>45.6911</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2732.2853</v>
-      </c>
-      <c r="X16" t="n">
-        <v>5.7281</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>10718.2556</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>9886.989299999999</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>60.2142</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>765.3246</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>5.9556</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15.5626</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>8186.3981</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>129.2971</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0.6546999999999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3.929</v>
-      </c>
-      <c r="C17" t="n">
-        <v>720.5650000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>144.444</v>
-      </c>
-      <c r="E17" t="n">
-        <v>77.17700000000001</v>
-      </c>
-      <c r="F17" t="n">
-        <v>18062.21</v>
-      </c>
-      <c r="G17" t="n">
-        <v>80.938</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I17" t="n">
-        <v>50256.941</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.673</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5909.341</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5159.394</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.957</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6423.377</v>
-      </c>
-      <c r="O17" t="n">
-        <v>89.383</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5465.057</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>60449.7991</v>
-      </c>
-      <c r="R17" t="n">
-        <v>23221.605</v>
-      </c>
-      <c r="S17" t="n">
-        <v>14.121</v>
-      </c>
-      <c r="T17" t="n">
-        <v>624.1319999999999</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3769.481</v>
-      </c>
-      <c r="V17" t="n">
-        <v>121.887</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2928.403</v>
-      </c>
-      <c r="X17" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>12025.78</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>11356.943</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>46.466</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>618.5309999999999</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>5.358</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>13.318</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>8902.948</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>101.416</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1.378</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="C18" t="n">
-        <v>855.6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>206.6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>19354.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>55173.1</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>5226.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6623.7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7534.6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6333.1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>67474.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>25977.9</v>
-      </c>
-      <c r="S18" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>876.8</v>
-      </c>
-      <c r="U18" t="n">
-        <v>4767</v>
-      </c>
-      <c r="V18" t="n">
-        <v>224.9</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3608.7</v>
-      </c>
-      <c r="X18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>13991.8</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>13212.7</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>742.9</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>9820.1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9.9556</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1238.863</v>
-      </c>
-      <c r="D19" t="n">
-        <v>142.6586</v>
-      </c>
-      <c r="E19" t="n">
-        <v>45.1483</v>
-      </c>
-      <c r="F19" t="n">
-        <v>23739.8369</v>
-      </c>
-      <c r="G19" t="n">
-        <v>42.0458</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.3923</v>
-      </c>
-      <c r="I19" t="n">
-        <v>65286.0106</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10.1697</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5213.3823</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7253.5703</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2.1121</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9040.055200000001</v>
-      </c>
-      <c r="O19" t="n">
-        <v>333.3393</v>
-      </c>
-      <c r="P19" t="n">
-        <v>7315.2392</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>79908.9773</v>
-      </c>
-      <c r="R19" t="n">
-        <v>30993.4069</v>
-      </c>
-      <c r="S19" t="n">
-        <v>25.3676</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1080.0363</v>
-      </c>
-      <c r="U19" t="n">
-        <v>5582.9114</v>
-      </c>
-      <c r="V19" t="n">
-        <v>351.6904</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4083.7723</v>
-      </c>
-      <c r="X19" t="n">
-        <v>6.3118</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>17548.6954</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>16380.7336</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>33.9216</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1127.7285</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>14.2972</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>20.4847</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>11346.8954</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>103.7001</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0.6231</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5.9975</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1781.123</v>
-      </c>
-      <c r="D20" t="n">
-        <v>71.8741</v>
-      </c>
-      <c r="E20" t="n">
-        <v>49.6478</v>
-      </c>
-      <c r="F20" t="n">
-        <v>25297.9046</v>
-      </c>
-      <c r="G20" t="n">
-        <v>85.584</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.979</v>
-      </c>
-      <c r="I20" t="n">
-        <v>77079.89629999999</v>
-      </c>
-      <c r="J20" t="n">
-        <v>18.7136</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7804.4686</v>
-      </c>
-      <c r="L20" t="n">
-        <v>10155.5831</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4.6016</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10592.6371</v>
-      </c>
-      <c r="O20" t="n">
-        <v>381.4965</v>
-      </c>
-      <c r="P20" t="n">
-        <v>8352.1464</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>94534.1504</v>
-      </c>
-      <c r="R20" t="n">
-        <v>35453.488</v>
-      </c>
-      <c r="S20" t="n">
-        <v>21.9792</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1070.2054</v>
-      </c>
-      <c r="U20" t="n">
-        <v>6861.6177</v>
-      </c>
-      <c r="V20" t="n">
-        <v>668.155</v>
-      </c>
-      <c r="W20" t="n">
-        <v>5015.6942</v>
-      </c>
-      <c r="X20" t="n">
-        <v>24.1454</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>22206.8038</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>20044.7965</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>152.3181</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1985.5442</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>27.3778</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>4.9473</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>11373.2539</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>159.909</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0.0837</v>
+        <v>0.7976</v>
       </c>
     </row>
   </sheetData>
